--- a/gatte-2.xlsx
+++ b/gatte-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="10500" windowHeight="5475" firstSheet="41" activeTab="41"/>
+    <workbookView windowWidth="10500" windowHeight="5475" firstSheet="41" activeTab="42"/>
   </bookViews>
   <sheets>
     <sheet name="2023-01-29" sheetId="36" r:id="rId1"/>
@@ -48,14 +48,15 @@
     <sheet name="2023-11-06" sheetId="74" r:id="rId39"/>
     <sheet name="2023-11-13" sheetId="75" r:id="rId40"/>
     <sheet name="2023-11-20" sheetId="76" r:id="rId41"/>
-    <sheet name="template" sheetId="35" r:id="rId42"/>
+    <sheet name="2024-02-26" sheetId="35" r:id="rId42"/>
+    <sheet name="2024-03-04" sheetId="77" r:id="rId43"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="124">
   <si>
     <t>起始</t>
   </si>
@@ -424,6 +425,9 @@
   </si>
   <si>
     <t>feature</t>
+  </si>
+  <si>
+    <t>SVM-train</t>
   </si>
 </sst>
 </file>
@@ -2300,7 +2304,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7c3c5b5a-b121-411d-9549-1d99f6d2fcd1}</x14:id>
+          <x14:id>{712f45b0-aa1c-4c62-acef-75d7c1004dd7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2312,7 +2316,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7c3c5b5a-b121-411d-9549-1d99f6d2fcd1}">
+          <x14:cfRule type="dataBar" id="{712f45b0-aa1c-4c62-acef-75d7c1004dd7}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3256,7 +3260,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{28d497b1-b8da-44ca-b7d8-e6dde2991201}</x14:id>
+          <x14:id>{462421a6-d4da-49a2-a6d5-ec82921cec42}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3268,7 +3272,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{28d497b1-b8da-44ca-b7d8-e6dde2991201}">
+          <x14:cfRule type="dataBar" id="{462421a6-d4da-49a2-a6d5-ec82921cec42}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4212,7 +4216,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5eba0f45-77a8-4642-8b47-8f1669cae799}</x14:id>
+          <x14:id>{1b7d3dda-2551-444c-9332-7974fba0424b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4224,7 +4228,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5eba0f45-77a8-4642-8b47-8f1669cae799}">
+          <x14:cfRule type="dataBar" id="{1b7d3dda-2551-444c-9332-7974fba0424b}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5362,7 +5366,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{80d2ac8e-994c-4c2a-82eb-b5a254cde9e2}</x14:id>
+          <x14:id>{342ce9ab-f2f0-4068-8048-21d848f1d226}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5374,7 +5378,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{80d2ac8e-994c-4c2a-82eb-b5a254cde9e2}">
+          <x14:cfRule type="dataBar" id="{342ce9ab-f2f0-4068-8048-21d848f1d226}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6345,7 +6349,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{562a2f13-38dc-4ad6-9c90-044cb4505e8b}</x14:id>
+          <x14:id>{c6628a07-376c-4213-9246-13ff8354da9a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6357,7 +6361,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{562a2f13-38dc-4ad6-9c90-044cb4505e8b}">
+          <x14:cfRule type="dataBar" id="{c6628a07-376c-4213-9246-13ff8354da9a}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7193,7 +7197,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b54ad871-a587-425e-9530-f5eaf43feb72}</x14:id>
+          <x14:id>{ae46d3da-ecf0-4bfe-ba32-e13738958022}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7205,7 +7209,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b54ad871-a587-425e-9530-f5eaf43feb72}">
+          <x14:cfRule type="dataBar" id="{ae46d3da-ecf0-4bfe-ba32-e13738958022}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8185,7 +8189,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{17db69ac-544e-4f56-a6ee-54efa03a6a86}</x14:id>
+          <x14:id>{3fbd5904-f79c-42d3-9321-c450e0b18f67}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8197,7 +8201,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{17db69ac-544e-4f56-a6ee-54efa03a6a86}">
+          <x14:cfRule type="dataBar" id="{3fbd5904-f79c-42d3-9321-c450e0b18f67}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -9132,7 +9136,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b1dc99d5-9f08-40fd-a3b7-263e2f188f41}</x14:id>
+          <x14:id>{1dceb760-5071-425e-b93c-6442e29ac23e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9144,7 +9148,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b1dc99d5-9f08-40fd-a3b7-263e2f188f41}">
+          <x14:cfRule type="dataBar" id="{1dceb760-5071-425e-b93c-6442e29ac23e}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -10088,7 +10092,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d9d28293-4bd6-44d6-8c5b-e4e16c55c3fe}</x14:id>
+          <x14:id>{188ee0d2-963a-4cd1-aab7-12f93a4d4098}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10100,7 +10104,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d9d28293-4bd6-44d6-8c5b-e4e16c55c3fe}">
+          <x14:cfRule type="dataBar" id="{188ee0d2-963a-4cd1-aab7-12f93a4d4098}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -11062,7 +11066,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{884b66fa-4312-4fb9-bddd-4e3fc145ac19}</x14:id>
+          <x14:id>{91d96687-88d2-4cda-91ec-5dc569faf77a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11074,7 +11078,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{884b66fa-4312-4fb9-bddd-4e3fc145ac19}">
+          <x14:cfRule type="dataBar" id="{91d96687-88d2-4cda-91ec-5dc569faf77a}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -12009,7 +12013,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{efc4d2b8-5ea9-407e-8481-c16ce4fafe89}</x14:id>
+          <x14:id>{52066775-0339-429b-88a5-ea4bc330d69e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -12021,7 +12025,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{efc4d2b8-5ea9-407e-8481-c16ce4fafe89}">
+          <x14:cfRule type="dataBar" id="{52066775-0339-429b-88a5-ea4bc330d69e}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -12932,7 +12936,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0dbb3f61-efff-4e98-b7de-1183dc57386a}</x14:id>
+          <x14:id>{e0a355ca-acc4-44ab-b778-11e36f3a9faa}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -12944,7 +12948,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0dbb3f61-efff-4e98-b7de-1183dc57386a}">
+          <x14:cfRule type="dataBar" id="{e0a355ca-acc4-44ab-b778-11e36f3a9faa}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -13816,7 +13820,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{acaa7bde-41c1-447f-a128-1fa531c93759}</x14:id>
+          <x14:id>{05eb69c3-5e1c-4d72-9751-0bae38f87d7f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -13828,7 +13832,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{acaa7bde-41c1-447f-a128-1fa531c93759}">
+          <x14:cfRule type="dataBar" id="{05eb69c3-5e1c-4d72-9751-0bae38f87d7f}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -14736,7 +14740,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6d546314-1dfc-4608-ae8c-cb1815ef6c08}</x14:id>
+          <x14:id>{6f87b43b-c402-4673-be04-1b4062ee6b6f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -14748,7 +14752,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6d546314-1dfc-4608-ae8c-cb1815ef6c08}">
+          <x14:cfRule type="dataBar" id="{6f87b43b-c402-4673-be04-1b4062ee6b6f}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -15683,7 +15687,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fd324c35-51a8-43c5-bdb9-c2fee8c2e268}</x14:id>
+          <x14:id>{8f97660a-abe1-48b8-9e08-763667f016e3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -15695,7 +15699,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fd324c35-51a8-43c5-bdb9-c2fee8c2e268}">
+          <x14:cfRule type="dataBar" id="{8f97660a-abe1-48b8-9e08-763667f016e3}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -16612,7 +16616,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ff78c570-9e31-41e5-95a3-f32c6c707417}</x14:id>
+          <x14:id>{8565bf10-c226-483d-bc33-bc258ddb7563}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -16624,7 +16628,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ff78c570-9e31-41e5-95a3-f32c6c707417}">
+          <x14:cfRule type="dataBar" id="{8565bf10-c226-483d-bc33-bc258ddb7563}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -17496,7 +17500,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b409a75c-eb57-404d-964b-9a1a21d3b61d}</x14:id>
+          <x14:id>{3efd820b-3ee7-4950-87e2-cde686250d48}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -17508,7 +17512,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b409a75c-eb57-404d-964b-9a1a21d3b61d}">
+          <x14:cfRule type="dataBar" id="{3efd820b-3ee7-4950-87e2-cde686250d48}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -18461,7 +18465,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f07e262b-d89f-4291-a288-d1baff782cd6}</x14:id>
+          <x14:id>{813407a4-7f4d-4487-ad48-e16c5f1d0fda}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -18473,7 +18477,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f07e262b-d89f-4291-a288-d1baff782cd6}">
+          <x14:cfRule type="dataBar" id="{813407a4-7f4d-4487-ad48-e16c5f1d0fda}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -19327,7 +19331,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7f41b5c1-c657-43c2-813b-1da6c0cdcbb2}</x14:id>
+          <x14:id>{adc550d0-01ff-48b8-be4d-fefbd4057bcf}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -19339,7 +19343,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7f41b5c1-c657-43c2-813b-1da6c0cdcbb2}">
+          <x14:cfRule type="dataBar" id="{adc550d0-01ff-48b8-be4d-fefbd4057bcf}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -20238,7 +20242,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a58b27d6-1824-44fe-b127-0f04165991ed}</x14:id>
+          <x14:id>{44b3b018-3ceb-4097-8901-a631467a5478}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -20250,7 +20254,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a58b27d6-1824-44fe-b127-0f04165991ed}">
+          <x14:cfRule type="dataBar" id="{44b3b018-3ceb-4097-8901-a631467a5478}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21212,7 +21216,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{92e8e90b-d42b-487a-907a-87a7883b8e3d}</x14:id>
+          <x14:id>{aaab3c82-a475-4cd5-b4e1-83d63b4bd29b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21224,7 +21228,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{92e8e90b-d42b-487a-907a-87a7883b8e3d}">
+          <x14:cfRule type="dataBar" id="{aaab3c82-a475-4cd5-b4e1-83d63b4bd29b}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22213,7 +22217,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fa5de936-ba21-4cf1-b50e-0ac9d5b91287}</x14:id>
+          <x14:id>{2e9876cc-3a40-456c-bc8e-1a86cecd0673}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -22225,7 +22229,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fa5de936-ba21-4cf1-b50e-0ac9d5b91287}">
+          <x14:cfRule type="dataBar" id="{2e9876cc-3a40-456c-bc8e-1a86cecd0673}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -23043,7 +23047,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0796b740-64b5-4745-8fc8-b7c74a49c528}</x14:id>
+          <x14:id>{c8d9289a-39c7-4cc4-807c-4614e9194c88}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -23055,7 +23059,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0796b740-64b5-4745-8fc8-b7c74a49c528}">
+          <x14:cfRule type="dataBar" id="{c8d9289a-39c7-4cc4-807c-4614e9194c88}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24062,7 +24066,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{40a893e2-1c54-4893-ba98-2f19bb9403ea}</x14:id>
+          <x14:id>{3fbc2dbc-cbf8-46ce-9ba7-e2cf155f9517}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24074,7 +24078,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{40a893e2-1c54-4893-ba98-2f19bb9403ea}">
+          <x14:cfRule type="dataBar" id="{3fbc2dbc-cbf8-46ce-9ba7-e2cf155f9517}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24955,7 +24959,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{836113b3-ba61-42fd-8843-f10ae212d3fb}</x14:id>
+          <x14:id>{0870dc40-0fa4-4026-a27d-329ad6717ee3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24967,7 +24971,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{836113b3-ba61-42fd-8843-f10ae212d3fb}">
+          <x14:cfRule type="dataBar" id="{0870dc40-0fa4-4026-a27d-329ad6717ee3}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -25857,7 +25861,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{aac8ee64-5907-4f1d-a059-f3dd012c107f}</x14:id>
+          <x14:id>{3bdf9339-b0d7-4265-b439-63121f86cb6b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -25869,7 +25873,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{aac8ee64-5907-4f1d-a059-f3dd012c107f}">
+          <x14:cfRule type="dataBar" id="{3bdf9339-b0d7-4265-b439-63121f86cb6b}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -26759,7 +26763,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fcd4e29c-d5af-43fe-82db-b076c307f223}</x14:id>
+          <x14:id>{55dc127e-bde6-4765-9162-f375006b7009}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -26771,7 +26775,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fcd4e29c-d5af-43fe-82db-b076c307f223}">
+          <x14:cfRule type="dataBar" id="{55dc127e-bde6-4765-9162-f375006b7009}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -27616,7 +27620,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{674318b1-5851-45bf-918b-c9115310a5e1}</x14:id>
+          <x14:id>{8cdae7b3-47ae-407f-be4c-d993b41f5499}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -27628,7 +27632,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{674318b1-5851-45bf-918b-c9115310a5e1}">
+          <x14:cfRule type="dataBar" id="{8cdae7b3-47ae-407f-be4c-d993b41f5499}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -28554,7 +28558,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1a0fe92d-15d1-4db6-b9ce-fb74ecc6f786}</x14:id>
+          <x14:id>{9c1b1e37-7642-4865-b5ad-82d3d554d859}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -28566,7 +28570,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1a0fe92d-15d1-4db6-b9ce-fb74ecc6f786}">
+          <x14:cfRule type="dataBar" id="{9c1b1e37-7642-4865-b5ad-82d3d554d859}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -29528,7 +29532,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{512b7f8c-3d14-42b0-9f0c-09bebf9f14e0}</x14:id>
+          <x14:id>{97a37890-8f91-4486-ba18-c8e0791718bd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -29540,7 +29544,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{512b7f8c-3d14-42b0-9f0c-09bebf9f14e0}">
+          <x14:cfRule type="dataBar" id="{97a37890-8f91-4486-ba18-c8e0791718bd}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -30412,7 +30416,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{937c36c1-8399-4271-b601-5b30aa1af586}</x14:id>
+          <x14:id>{f9814699-a2ec-44e8-9dc1-49d52710b41a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -30424,7 +30428,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{937c36c1-8399-4271-b601-5b30aa1af586}">
+          <x14:cfRule type="dataBar" id="{f9814699-a2ec-44e8-9dc1-49d52710b41a}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -31341,7 +31345,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dfba8135-0088-49a2-ba01-0ef7222ad6a0}</x14:id>
+          <x14:id>{e665ac27-7563-4198-92f3-502def83e524}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -31353,7 +31357,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{dfba8135-0088-49a2-ba01-0ef7222ad6a0}">
+          <x14:cfRule type="dataBar" id="{e665ac27-7563-4198-92f3-502def83e524}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -32216,7 +32220,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d743c37a-a75a-4709-841c-3be955db4bd2}</x14:id>
+          <x14:id>{b8d484ae-3354-45c7-833f-2c272d13be71}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -32228,7 +32232,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d743c37a-a75a-4709-841c-3be955db4bd2}">
+          <x14:cfRule type="dataBar" id="{b8d484ae-3354-45c7-833f-2c272d13be71}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -33262,7 +33266,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{10806380-6236-4ecc-ae22-2894664ca152}</x14:id>
+          <x14:id>{fa0e52b1-a7df-40cc-8791-0731f9fac0a6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -33274,7 +33278,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{10806380-6236-4ecc-ae22-2894664ca152}">
+          <x14:cfRule type="dataBar" id="{fa0e52b1-a7df-40cc-8791-0731f9fac0a6}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -34209,7 +34213,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bcad4110-42ae-4f0b-b2b3-f830a7366158}</x14:id>
+          <x14:id>{5bc31926-1e9c-4d37-9b43-c9937421d31f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -34221,7 +34225,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{bcad4110-42ae-4f0b-b2b3-f830a7366158}">
+          <x14:cfRule type="dataBar" id="{5bc31926-1e9c-4d37-9b43-c9937421d31f}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -35138,7 +35142,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6552cb77-d4e6-4808-b825-d5a0be165ff7}</x14:id>
+          <x14:id>{7f844523-3540-483b-92b5-d072f1feb7fd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -35150,7 +35154,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6552cb77-d4e6-4808-b825-d5a0be165ff7}">
+          <x14:cfRule type="dataBar" id="{7f844523-3540-483b-92b5-d072f1feb7fd}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -35173,8 +35177,8 @@
   <sheetPr codeName="Sheet41"/>
   <dimension ref="A1:Q92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1"/>
@@ -35213,7 +35217,7 @@
         <v>120</v>
       </c>
       <c r="D2" s="4">
-        <f t="shared" ref="D2:D12" si="0">INT(ABS(B2-A2)*1440)</f>
+        <f t="shared" ref="D2:D22" si="0">INT(ABS(B2-A2)*1440)</f>
         <v>31</v>
       </c>
       <c r="E2" s="4"/>
@@ -35382,7 +35386,7 @@
         <v>120</v>
       </c>
       <c r="D13" s="4">
-        <f>INT(ABS(B13-A13)*1440)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="E13" s="1"/>
@@ -35398,7 +35402,7 @@
         <v>120</v>
       </c>
       <c r="D14" s="4">
-        <f>INT(ABS(B14-A14)*1440)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="E14" s="1"/>
@@ -35414,7 +35418,7 @@
         <v>122</v>
       </c>
       <c r="D15" s="4">
-        <f>INT(ABS(B15-A15)*1440)</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="E15" s="1"/>
@@ -35430,7 +35434,7 @@
         <v>68</v>
       </c>
       <c r="D16" s="4">
-        <f>INT(ABS(B16-A16)*1440)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="E16" s="1"/>
@@ -35446,7 +35450,7 @@
         <v>68</v>
       </c>
       <c r="D17" s="4">
-        <f>INT(ABS(B17-A17)*1440)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="E17" s="1"/>
@@ -35462,7 +35466,7 @@
         <v>68</v>
       </c>
       <c r="D18" s="4">
-        <f>INT(ABS(B18-A18)*1440)</f>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="E18" s="1"/>
@@ -35478,7 +35482,7 @@
         <v>68</v>
       </c>
       <c r="D19" s="4">
-        <f>INT(ABS(B19-A19)*1440)</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="E19" s="1"/>
@@ -35499,7 +35503,7 @@
         <v>78</v>
       </c>
       <c r="D20" s="4">
-        <f>INT(ABS(B20-A20)*1440)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="E20" s="1"/>
@@ -35520,7 +35524,7 @@
         <v>68</v>
       </c>
       <c r="D21" s="4">
-        <f>INT(ABS(B21-A21)*1440)</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="E21" s="1"/>
@@ -35541,7 +35545,7 @@
         <v>68</v>
       </c>
       <c r="D22" s="4">
-        <f>INT(ABS(B22-A22)*1440)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="E22" s="1"/>
@@ -36056,7 +36060,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{12bc6a80-d902-4597-923f-6bb6ba65041a}</x14:id>
+          <x14:id>{6b36d15b-52dd-4429-966d-8fc0ddf29619}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -36068,7 +36072,1015 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{12bc6a80-d902-4597-923f-6bb6ba65041a}">
+          <x14:cfRule type="dataBar" id="{6b36d15b-52dd-4429-966d-8fc0ddf29619}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D$1:D$1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q92"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31:D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="30.7083333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="51.6083333333333" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.7083333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:5">
+      <c r="A2" s="3">
+        <v>45355.4386921296</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45355.4554050926</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4">
+        <f>INT(ABS(B2-A2)*1440)</f>
+        <v>24</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="3">
+        <v>45355.4591203704</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45355.4896990741</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="4">
+        <f>INT(ABS(B3-A3)*1440)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A4" s="3">
+        <v>45355.6045949074</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45355.6455439815</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="4">
+        <f>INT(ABS(B4-A4)*1440)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A5" s="3">
+        <v>45355.6528009259</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45355.6999768519</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="4">
+        <f>INT(ABS(B5-A5)*1440)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A6" s="3">
+        <v>45355.7028935185</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45355.7402662037</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="4">
+        <f>INT(ABS(B6-A6)*1440)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
+        <v>45356.4086689815</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45356.4481481481</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="4">
+        <f>INT(ABS(B7-A7)*1440)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A8" s="3">
+        <v>45356.4516550926</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45356.4869097222</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="4">
+        <f>INT(ABS(B8-A8)*1440)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A9" s="3">
+        <v>45356.6036574074</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45356.6317824074</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="4">
+        <f>INT(ABS(B9-A9)*1440)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A10" s="3">
+        <v>45356.6318287037</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45356.6844560185</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="4">
+        <f>INT(ABS(B10-A10)*1440)</f>
+        <v>75</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A11" s="3">
+        <v>45356.6924074074</v>
+      </c>
+      <c r="B11" s="3">
+        <v>45356.7288425926</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="4">
+        <f>INT(ABS(B11-A11)*1440)</f>
+        <v>52</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A12" s="3">
+        <v>45356.733287037</v>
+      </c>
+      <c r="B12" s="3">
+        <v>45356.7521990741</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="4">
+        <f>INT(ABS(B12-A12)*1440)</f>
+        <v>27</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A13" s="3">
+        <v>45357.4004166667</v>
+      </c>
+      <c r="B13" s="3">
+        <v>45357.4150925926</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="4">
+        <f>INT(ABS(B13-A13)*1440)</f>
+        <v>21</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A14" s="3">
+        <v>45357.415787037</v>
+      </c>
+      <c r="B14" s="3">
+        <v>45357.4651967593</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="4">
+        <f>INT(ABS(B14-A14)*1440)</f>
+        <v>71</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A15" s="3">
+        <v>45357.4747337963</v>
+      </c>
+      <c r="B15" s="3">
+        <v>45357.4872337963</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4">
+        <f>INT(ABS(B15-A15)*1440)</f>
+        <v>17</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A16" s="3">
+        <v>45357.6072453704</v>
+      </c>
+      <c r="B16" s="3">
+        <v>45357.6443171296</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="4">
+        <f>INT(ABS(B16-A16)*1440)</f>
+        <v>53</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A17" s="3">
+        <v>45357.6487847222</v>
+      </c>
+      <c r="B17" s="3">
+        <v>45357.6977662037</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="4">
+        <f>INT(ABS(B17-A17)*1440)</f>
+        <v>70</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A18" s="3">
+        <v>45357.7096643519</v>
+      </c>
+      <c r="B18" s="3">
+        <v>45357.7421990741</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="4">
+        <f>INT(ABS(B18-A18)*1440)</f>
+        <v>46</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A19" s="3">
+        <v>45357.7530324074</v>
+      </c>
+      <c r="B19" s="3">
+        <v>45357.771087963</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="4">
+        <f>INT(ABS(B19-A19)*1440)</f>
+        <v>25</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A20" s="3">
+        <v>45358.3843634259</v>
+      </c>
+      <c r="B20" s="3">
+        <v>45358.4157060185</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="4">
+        <f>INT(ABS(B20-A20)*1440)</f>
+        <v>45</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A21" s="3">
+        <v>45358.4186342593</v>
+      </c>
+      <c r="B21" s="3">
+        <v>45358.4582060185</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="4">
+        <f>INT(ABS(B21-A21)*1440)</f>
+        <v>56</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+    </row>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A22" s="3">
+        <v>45358.4657638889</v>
+      </c>
+      <c r="B22" s="3">
+        <v>45358.4866898148</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="4">
+        <f>INT(ABS(B22-A22)*1440)</f>
+        <v>30</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A23" s="3">
+        <v>45358.6010300926</v>
+      </c>
+      <c r="B23" s="3">
+        <v>45358.6262037037</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="4">
+        <f>INT(ABS(B23-A23)*1440)</f>
+        <v>36</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+    </row>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A24" s="3">
+        <v>45358.6290740741</v>
+      </c>
+      <c r="B24" s="3">
+        <v>45358.6748263889</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="4">
+        <f>INT(ABS(B24-A24)*1440)</f>
+        <v>65</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A25" s="3">
+        <v>45358.6787268519</v>
+      </c>
+      <c r="B25" s="3">
+        <v>45358.7129398148</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="4">
+        <f>INT(ABS(B25-A25)*1440)</f>
+        <v>49</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A26" s="3">
+        <v>45358.7173032407</v>
+      </c>
+      <c r="B26" s="3">
+        <v>45358.7496064815</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="4">
+        <f>INT(ABS(B26-A26)*1440)</f>
+        <v>46</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A27" s="3">
+        <v>45359.3912152778</v>
+      </c>
+      <c r="B27" s="3">
+        <v>45359.424224537</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="4">
+        <f>INT(ABS(B27-A27)*1440)</f>
+        <v>47</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A28" s="3">
+        <v>45359.4243171296</v>
+      </c>
+      <c r="B28" s="3">
+        <v>45359.4557523148</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="4">
+        <f>INT(ABS(B28-A28)*1440)</f>
+        <v>45</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A29" s="3">
+        <v>45359.4608912037</v>
+      </c>
+      <c r="B29" s="3">
+        <v>45359.4865856481</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="4">
+        <f>INT(ABS(B29-A29)*1440)</f>
+        <v>37</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A30" s="3">
+        <v>45359.6114930556</v>
+      </c>
+      <c r="B30" s="3">
+        <v>45359.6410416667</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="4">
+        <f>INT(ABS(B30-A30)*1440)</f>
+        <v>42</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A31" s="3">
+        <v>45359.6469097222</v>
+      </c>
+      <c r="B31" s="3">
+        <v>45359.6778935185</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="4">
+        <f>INT(ABS(B31-A31)*1440)</f>
+        <v>44</v>
+      </c>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A32" s="3">
+        <v>45359.6812962963</v>
+      </c>
+      <c r="B32" s="3">
+        <v>45359.7136458333</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="4">
+        <f>INT(ABS(B32-A32)*1440)</f>
+        <v>46</v>
+      </c>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D$1:D$1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{78b3682f-e5c6-43f9-b670-b15d51812e84}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{78b3682f-e5c6-43f9-b670-b15d51812e84}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -37120,7 +38132,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{13a938d6-4bd1-4a18-a711-8c97482b35ac}</x14:id>
+          <x14:id>{2daa9e4e-fbe9-45ab-95f2-8bcdaa5709ee}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -37132,7 +38144,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{13a938d6-4bd1-4a18-a711-8c97482b35ac}">
+          <x14:cfRule type="dataBar" id="{2daa9e4e-fbe9-45ab-95f2-8bcdaa5709ee}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -38087,7 +39099,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b9c3d73d-fa9e-418c-8bf7-10c8c6d95d3b}</x14:id>
+          <x14:id>{971d89cc-12f8-4f74-8868-b246105bfd42}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -38099,7 +39111,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b9c3d73d-fa9e-418c-8bf7-10c8c6d95d3b}">
+          <x14:cfRule type="dataBar" id="{971d89cc-12f8-4f74-8868-b246105bfd42}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -39088,7 +40100,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f0558f4d-abe2-4c19-b8a5-1dc975e8a924}</x14:id>
+          <x14:id>{57a30c04-a633-472e-847b-1e6811827e23}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -39100,7 +40112,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f0558f4d-abe2-4c19-b8a5-1dc975e8a924}">
+          <x14:cfRule type="dataBar" id="{57a30c04-a633-472e-847b-1e6811827e23}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -40107,7 +41119,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6185771a-3375-4b4e-88db-c962f54ba97c}</x14:id>
+          <x14:id>{92ac9aa8-18a5-4861-98b4-0175bc7fe8b3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -40119,7 +41131,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6185771a-3375-4b4e-88db-c962f54ba97c}">
+          <x14:cfRule type="dataBar" id="{92ac9aa8-18a5-4861-98b4-0175bc7fe8b3}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -41045,7 +42057,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{06f26dac-9433-4890-86c5-c3af69be1d5e}</x14:id>
+          <x14:id>{0728c961-462d-420d-a657-eff25e6abd17}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -41057,7 +42069,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{06f26dac-9433-4890-86c5-c3af69be1d5e}">
+          <x14:cfRule type="dataBar" id="{0728c961-462d-420d-a657-eff25e6abd17}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/gatte-2.xlsx
+++ b/gatte-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="10500" windowHeight="5475" firstSheet="41" activeTab="42"/>
+    <workbookView windowWidth="10500" windowHeight="6435" firstSheet="42" activeTab="43"/>
   </bookViews>
   <sheets>
     <sheet name="2023-01-29" sheetId="36" r:id="rId1"/>
@@ -50,13 +50,14 @@
     <sheet name="2023-11-20" sheetId="76" r:id="rId41"/>
     <sheet name="2024-02-26" sheetId="35" r:id="rId42"/>
     <sheet name="2024-03-04" sheetId="77" r:id="rId43"/>
+    <sheet name="2024-03-11" sheetId="78" r:id="rId44"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="128">
   <si>
     <t>起始</t>
   </si>
@@ -428,6 +429,18 @@
   </si>
   <si>
     <t>SVM-train</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>SVM-code</t>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>C-LEARN</t>
   </si>
 </sst>
 </file>
@@ -2304,7 +2317,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{712f45b0-aa1c-4c62-acef-75d7c1004dd7}</x14:id>
+          <x14:id>{93065443-a2c2-4c89-910b-69dcb3f056d9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2316,7 +2329,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{712f45b0-aa1c-4c62-acef-75d7c1004dd7}">
+          <x14:cfRule type="dataBar" id="{93065443-a2c2-4c89-910b-69dcb3f056d9}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3260,7 +3273,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{462421a6-d4da-49a2-a6d5-ec82921cec42}</x14:id>
+          <x14:id>{7414bf49-8641-497a-a767-fe1c1c80dbbd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3272,7 +3285,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{462421a6-d4da-49a2-a6d5-ec82921cec42}">
+          <x14:cfRule type="dataBar" id="{7414bf49-8641-497a-a767-fe1c1c80dbbd}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4216,7 +4229,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1b7d3dda-2551-444c-9332-7974fba0424b}</x14:id>
+          <x14:id>{a9b1a272-83fa-468d-b4f3-eef739b1327a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4228,7 +4241,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1b7d3dda-2551-444c-9332-7974fba0424b}">
+          <x14:cfRule type="dataBar" id="{a9b1a272-83fa-468d-b4f3-eef739b1327a}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5366,7 +5379,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{342ce9ab-f2f0-4068-8048-21d848f1d226}</x14:id>
+          <x14:id>{6645a625-90e3-4677-b91a-a16a200615bc}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5378,7 +5391,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{342ce9ab-f2f0-4068-8048-21d848f1d226}">
+          <x14:cfRule type="dataBar" id="{6645a625-90e3-4677-b91a-a16a200615bc}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6349,7 +6362,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c6628a07-376c-4213-9246-13ff8354da9a}</x14:id>
+          <x14:id>{9b92ae89-611f-4ca9-9aa3-4fe9496c9b1e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6361,7 +6374,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c6628a07-376c-4213-9246-13ff8354da9a}">
+          <x14:cfRule type="dataBar" id="{9b92ae89-611f-4ca9-9aa3-4fe9496c9b1e}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7197,7 +7210,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ae46d3da-ecf0-4bfe-ba32-e13738958022}</x14:id>
+          <x14:id>{40245748-b916-4513-8bdc-203059ee7cf2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7209,7 +7222,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ae46d3da-ecf0-4bfe-ba32-e13738958022}">
+          <x14:cfRule type="dataBar" id="{40245748-b916-4513-8bdc-203059ee7cf2}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8189,7 +8202,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3fbd5904-f79c-42d3-9321-c450e0b18f67}</x14:id>
+          <x14:id>{98bfc1cd-9459-4740-8a1a-bedef3550e14}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8201,7 +8214,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3fbd5904-f79c-42d3-9321-c450e0b18f67}">
+          <x14:cfRule type="dataBar" id="{98bfc1cd-9459-4740-8a1a-bedef3550e14}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -9136,7 +9149,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1dceb760-5071-425e-b93c-6442e29ac23e}</x14:id>
+          <x14:id>{4bb4ad92-67fa-4d12-af36-1017e02c66be}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9148,7 +9161,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1dceb760-5071-425e-b93c-6442e29ac23e}">
+          <x14:cfRule type="dataBar" id="{4bb4ad92-67fa-4d12-af36-1017e02c66be}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -10092,7 +10105,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{188ee0d2-963a-4cd1-aab7-12f93a4d4098}</x14:id>
+          <x14:id>{b92a2ba1-c40b-4b3f-84e0-1fbdc1ce5a8b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10104,7 +10117,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{188ee0d2-963a-4cd1-aab7-12f93a4d4098}">
+          <x14:cfRule type="dataBar" id="{b92a2ba1-c40b-4b3f-84e0-1fbdc1ce5a8b}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -11066,7 +11079,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{91d96687-88d2-4cda-91ec-5dc569faf77a}</x14:id>
+          <x14:id>{a9f536bc-1f92-423d-bafb-5e6cc2e22302}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11078,7 +11091,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{91d96687-88d2-4cda-91ec-5dc569faf77a}">
+          <x14:cfRule type="dataBar" id="{a9f536bc-1f92-423d-bafb-5e6cc2e22302}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -12013,7 +12026,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{52066775-0339-429b-88a5-ea4bc330d69e}</x14:id>
+          <x14:id>{cf856acd-955f-4e0d-92a3-3e651ee3c5c3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -12025,7 +12038,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{52066775-0339-429b-88a5-ea4bc330d69e}">
+          <x14:cfRule type="dataBar" id="{cf856acd-955f-4e0d-92a3-3e651ee3c5c3}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -12936,7 +12949,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e0a355ca-acc4-44ab-b778-11e36f3a9faa}</x14:id>
+          <x14:id>{27fd75eb-4561-4b6a-8694-aaa77070e9cf}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -12948,7 +12961,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e0a355ca-acc4-44ab-b778-11e36f3a9faa}">
+          <x14:cfRule type="dataBar" id="{27fd75eb-4561-4b6a-8694-aaa77070e9cf}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -13820,7 +13833,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{05eb69c3-5e1c-4d72-9751-0bae38f87d7f}</x14:id>
+          <x14:id>{b51fe25d-0425-49b8-8795-61b5250eabad}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -13832,7 +13845,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{05eb69c3-5e1c-4d72-9751-0bae38f87d7f}">
+          <x14:cfRule type="dataBar" id="{b51fe25d-0425-49b8-8795-61b5250eabad}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -14740,7 +14753,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6f87b43b-c402-4673-be04-1b4062ee6b6f}</x14:id>
+          <x14:id>{32595d85-6a72-4da6-b3cd-bf1e12ef64b1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -14752,7 +14765,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6f87b43b-c402-4673-be04-1b4062ee6b6f}">
+          <x14:cfRule type="dataBar" id="{32595d85-6a72-4da6-b3cd-bf1e12ef64b1}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -15687,7 +15700,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8f97660a-abe1-48b8-9e08-763667f016e3}</x14:id>
+          <x14:id>{64be35a4-377f-41ac-9f22-b7d338a41fae}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -15699,7 +15712,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8f97660a-abe1-48b8-9e08-763667f016e3}">
+          <x14:cfRule type="dataBar" id="{64be35a4-377f-41ac-9f22-b7d338a41fae}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -16616,7 +16629,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8565bf10-c226-483d-bc33-bc258ddb7563}</x14:id>
+          <x14:id>{84afc08e-bdd3-4f5d-bded-d6b3b92423a8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -16628,7 +16641,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8565bf10-c226-483d-bc33-bc258ddb7563}">
+          <x14:cfRule type="dataBar" id="{84afc08e-bdd3-4f5d-bded-d6b3b92423a8}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -17500,7 +17513,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3efd820b-3ee7-4950-87e2-cde686250d48}</x14:id>
+          <x14:id>{4bf76a4d-ff4b-46f7-b47a-804db75128fb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -17512,7 +17525,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3efd820b-3ee7-4950-87e2-cde686250d48}">
+          <x14:cfRule type="dataBar" id="{4bf76a4d-ff4b-46f7-b47a-804db75128fb}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -18465,7 +18478,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{813407a4-7f4d-4487-ad48-e16c5f1d0fda}</x14:id>
+          <x14:id>{426eb4f4-2803-4ea0-b651-cc66302ab3c2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -18477,7 +18490,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{813407a4-7f4d-4487-ad48-e16c5f1d0fda}">
+          <x14:cfRule type="dataBar" id="{426eb4f4-2803-4ea0-b651-cc66302ab3c2}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -19331,7 +19344,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{adc550d0-01ff-48b8-be4d-fefbd4057bcf}</x14:id>
+          <x14:id>{52c20695-18f7-4f4f-8ec9-f2c04b70a154}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -19343,7 +19356,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{adc550d0-01ff-48b8-be4d-fefbd4057bcf}">
+          <x14:cfRule type="dataBar" id="{52c20695-18f7-4f4f-8ec9-f2c04b70a154}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -20242,7 +20255,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{44b3b018-3ceb-4097-8901-a631467a5478}</x14:id>
+          <x14:id>{bd70c5e2-51d6-44f2-9762-35e10ac2d230}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -20254,7 +20267,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{44b3b018-3ceb-4097-8901-a631467a5478}">
+          <x14:cfRule type="dataBar" id="{bd70c5e2-51d6-44f2-9762-35e10ac2d230}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21216,7 +21229,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{aaab3c82-a475-4cd5-b4e1-83d63b4bd29b}</x14:id>
+          <x14:id>{e7129f90-73a4-49c4-a21e-6798e0794ece}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21228,7 +21241,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{aaab3c82-a475-4cd5-b4e1-83d63b4bd29b}">
+          <x14:cfRule type="dataBar" id="{e7129f90-73a4-49c4-a21e-6798e0794ece}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22217,7 +22230,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2e9876cc-3a40-456c-bc8e-1a86cecd0673}</x14:id>
+          <x14:id>{dd3b38f2-b3af-43f5-b42e-2088ecb498df}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -22229,7 +22242,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2e9876cc-3a40-456c-bc8e-1a86cecd0673}">
+          <x14:cfRule type="dataBar" id="{dd3b38f2-b3af-43f5-b42e-2088ecb498df}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -23047,7 +23060,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c8d9289a-39c7-4cc4-807c-4614e9194c88}</x14:id>
+          <x14:id>{2bf1ca25-cb2a-425b-b3f8-2a2ddd625b35}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -23059,7 +23072,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c8d9289a-39c7-4cc4-807c-4614e9194c88}">
+          <x14:cfRule type="dataBar" id="{2bf1ca25-cb2a-425b-b3f8-2a2ddd625b35}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24066,7 +24079,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3fbc2dbc-cbf8-46ce-9ba7-e2cf155f9517}</x14:id>
+          <x14:id>{f9a26800-2172-4047-acf3-6a33b0fbb08f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24078,7 +24091,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3fbc2dbc-cbf8-46ce-9ba7-e2cf155f9517}">
+          <x14:cfRule type="dataBar" id="{f9a26800-2172-4047-acf3-6a33b0fbb08f}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24959,7 +24972,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0870dc40-0fa4-4026-a27d-329ad6717ee3}</x14:id>
+          <x14:id>{994479e4-fb58-45df-b69d-cbfb82feb093}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24971,7 +24984,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0870dc40-0fa4-4026-a27d-329ad6717ee3}">
+          <x14:cfRule type="dataBar" id="{994479e4-fb58-45df-b69d-cbfb82feb093}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -25861,7 +25874,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3bdf9339-b0d7-4265-b439-63121f86cb6b}</x14:id>
+          <x14:id>{47d72b85-ef59-4aa9-8b80-2446f72652ae}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -25873,7 +25886,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3bdf9339-b0d7-4265-b439-63121f86cb6b}">
+          <x14:cfRule type="dataBar" id="{47d72b85-ef59-4aa9-8b80-2446f72652ae}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -26763,7 +26776,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{55dc127e-bde6-4765-9162-f375006b7009}</x14:id>
+          <x14:id>{4aff8b32-f123-46ae-9981-f9fa087b8885}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -26775,7 +26788,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{55dc127e-bde6-4765-9162-f375006b7009}">
+          <x14:cfRule type="dataBar" id="{4aff8b32-f123-46ae-9981-f9fa087b8885}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -27620,7 +27633,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8cdae7b3-47ae-407f-be4c-d993b41f5499}</x14:id>
+          <x14:id>{9a885434-0e09-446e-8f8f-2fbc7c61e017}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -27632,7 +27645,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8cdae7b3-47ae-407f-be4c-d993b41f5499}">
+          <x14:cfRule type="dataBar" id="{9a885434-0e09-446e-8f8f-2fbc7c61e017}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -28558,7 +28571,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9c1b1e37-7642-4865-b5ad-82d3d554d859}</x14:id>
+          <x14:id>{406da839-6344-466c-ae73-36df7b067377}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -28570,7 +28583,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9c1b1e37-7642-4865-b5ad-82d3d554d859}">
+          <x14:cfRule type="dataBar" id="{406da839-6344-466c-ae73-36df7b067377}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -29532,7 +29545,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{97a37890-8f91-4486-ba18-c8e0791718bd}</x14:id>
+          <x14:id>{90572a74-0ee9-40e5-9973-bf044eb09d5f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -29544,7 +29557,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{97a37890-8f91-4486-ba18-c8e0791718bd}">
+          <x14:cfRule type="dataBar" id="{90572a74-0ee9-40e5-9973-bf044eb09d5f}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -30416,7 +30429,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f9814699-a2ec-44e8-9dc1-49d52710b41a}</x14:id>
+          <x14:id>{a8488488-7ae1-4740-a025-1e8609e0b60c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -30428,7 +30441,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f9814699-a2ec-44e8-9dc1-49d52710b41a}">
+          <x14:cfRule type="dataBar" id="{a8488488-7ae1-4740-a025-1e8609e0b60c}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -31345,7 +31358,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e665ac27-7563-4198-92f3-502def83e524}</x14:id>
+          <x14:id>{ffc4ed69-b035-47aa-baa4-a72caccc3489}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -31357,7 +31370,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e665ac27-7563-4198-92f3-502def83e524}">
+          <x14:cfRule type="dataBar" id="{ffc4ed69-b035-47aa-baa4-a72caccc3489}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -32220,7 +32233,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b8d484ae-3354-45c7-833f-2c272d13be71}</x14:id>
+          <x14:id>{a2c992f5-0ba4-4bec-9013-8861a260b1fc}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -32232,7 +32245,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b8d484ae-3354-45c7-833f-2c272d13be71}">
+          <x14:cfRule type="dataBar" id="{a2c992f5-0ba4-4bec-9013-8861a260b1fc}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -33266,7 +33279,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fa0e52b1-a7df-40cc-8791-0731f9fac0a6}</x14:id>
+          <x14:id>{1bc81a3d-9701-44e9-97f8-0c6fab13b16f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -33278,7 +33291,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fa0e52b1-a7df-40cc-8791-0731f9fac0a6}">
+          <x14:cfRule type="dataBar" id="{1bc81a3d-9701-44e9-97f8-0c6fab13b16f}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -34213,7 +34226,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5bc31926-1e9c-4d37-9b43-c9937421d31f}</x14:id>
+          <x14:id>{9d5a9a3a-2aa0-4110-9edf-42b7bf050211}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -34225,7 +34238,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5bc31926-1e9c-4d37-9b43-c9937421d31f}">
+          <x14:cfRule type="dataBar" id="{9d5a9a3a-2aa0-4110-9edf-42b7bf050211}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -35142,7 +35155,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7f844523-3540-483b-92b5-d072f1feb7fd}</x14:id>
+          <x14:id>{c6e7b49d-3339-4a83-8791-d3ebfdeb878b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -35154,7 +35167,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7f844523-3540-483b-92b5-d072f1feb7fd}">
+          <x14:cfRule type="dataBar" id="{c6e7b49d-3339-4a83-8791-d3ebfdeb878b}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -36060,7 +36073,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6b36d15b-52dd-4429-966d-8fc0ddf29619}</x14:id>
+          <x14:id>{e01b4e89-f7ec-482a-807e-c6cfac31e153}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -36072,7 +36085,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6b36d15b-52dd-4429-966d-8fc0ddf29619}">
+          <x14:cfRule type="dataBar" id="{e01b4e89-f7ec-482a-807e-c6cfac31e153}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -36095,8 +36108,8 @@
   <sheetPr/>
   <dimension ref="A1:Q92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31:D32"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1"/>
@@ -36135,7 +36148,7 @@
         <v>68</v>
       </c>
       <c r="D2" s="4">
-        <f>INT(ABS(B2-A2)*1440)</f>
+        <f t="shared" ref="D2:D32" si="0">INT(ABS(B2-A2)*1440)</f>
         <v>24</v>
       </c>
       <c r="E2" s="4"/>
@@ -36151,7 +36164,7 @@
         <v>68</v>
       </c>
       <c r="D3" s="4">
-        <f>INT(ABS(B3-A3)*1440)</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
@@ -36166,7 +36179,7 @@
         <v>123</v>
       </c>
       <c r="D4" s="4">
-        <f>INT(ABS(B4-A4)*1440)</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
     </row>
@@ -36181,7 +36194,7 @@
         <v>123</v>
       </c>
       <c r="D5" s="4">
-        <f>INT(ABS(B5-A5)*1440)</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
     </row>
@@ -36196,7 +36209,7 @@
         <v>123</v>
       </c>
       <c r="D6" s="4">
-        <f>INT(ABS(B6-A6)*1440)</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
     </row>
@@ -36211,7 +36224,7 @@
         <v>123</v>
       </c>
       <c r="D7" s="4">
-        <f>INT(ABS(B7-A7)*1440)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
     </row>
@@ -36226,7 +36239,7 @@
         <v>68</v>
       </c>
       <c r="D8" s="4">
-        <f>INT(ABS(B8-A8)*1440)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
@@ -36241,7 +36254,7 @@
         <v>68</v>
       </c>
       <c r="D9" s="4">
-        <f>INT(ABS(B9-A9)*1440)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -36256,7 +36269,7 @@
         <v>33</v>
       </c>
       <c r="D10" s="4">
-        <f>INT(ABS(B10-A10)*1440)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="E10" s="1"/>
@@ -36272,7 +36285,7 @@
         <v>123</v>
       </c>
       <c r="D11" s="4">
-        <f>INT(ABS(B11-A11)*1440)</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="E11" s="1"/>
@@ -36288,7 +36301,7 @@
         <v>68</v>
       </c>
       <c r="D12" s="4">
-        <f>INT(ABS(B12-A12)*1440)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="E12" s="1"/>
@@ -36304,7 +36317,7 @@
         <v>68</v>
       </c>
       <c r="D13" s="4">
-        <f>INT(ABS(B13-A13)*1440)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="E13" s="1"/>
@@ -36320,7 +36333,7 @@
         <v>33</v>
       </c>
       <c r="D14" s="4">
-        <f>INT(ABS(B14-A14)*1440)</f>
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="E14" s="1"/>
@@ -36336,7 +36349,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="4">
-        <f>INT(ABS(B15-A15)*1440)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="E15" s="1"/>
@@ -36352,7 +36365,7 @@
         <v>68</v>
       </c>
       <c r="D16" s="4">
-        <f>INT(ABS(B16-A16)*1440)</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="E16" s="1"/>
@@ -36368,7 +36381,7 @@
         <v>121</v>
       </c>
       <c r="D17" s="4">
-        <f>INT(ABS(B17-A17)*1440)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="E17" s="1"/>
@@ -36384,7 +36397,7 @@
         <v>121</v>
       </c>
       <c r="D18" s="4">
-        <f>INT(ABS(B18-A18)*1440)</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="E18" s="1"/>
@@ -36400,7 +36413,7 @@
         <v>121</v>
       </c>
       <c r="D19" s="4">
-        <f>INT(ABS(B19-A19)*1440)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="E19" s="1"/>
@@ -36421,7 +36434,7 @@
         <v>121</v>
       </c>
       <c r="D20" s="4">
-        <f>INT(ABS(B20-A20)*1440)</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="E20" s="1"/>
@@ -36442,7 +36455,7 @@
         <v>121</v>
       </c>
       <c r="D21" s="4">
-        <f>INT(ABS(B21-A21)*1440)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="E21" s="1"/>
@@ -36463,7 +36476,7 @@
         <v>123</v>
       </c>
       <c r="D22" s="4">
-        <f>INT(ABS(B22-A22)*1440)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E22" s="1"/>
@@ -36484,7 +36497,7 @@
         <v>123</v>
       </c>
       <c r="D23" s="4">
-        <f>INT(ABS(B23-A23)*1440)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="E23" s="1"/>
@@ -36505,7 +36518,7 @@
         <v>123</v>
       </c>
       <c r="D24" s="4">
-        <f>INT(ABS(B24-A24)*1440)</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="E24" s="1"/>
@@ -36521,7 +36534,7 @@
         <v>123</v>
       </c>
       <c r="D25" s="4">
-        <f>INT(ABS(B25-A25)*1440)</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="E25" s="1"/>
@@ -36537,7 +36550,7 @@
         <v>123</v>
       </c>
       <c r="D26" s="4">
-        <f>INT(ABS(B26-A26)*1440)</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="E26" s="1"/>
@@ -36553,7 +36566,7 @@
         <v>123</v>
       </c>
       <c r="D27" s="4">
-        <f>INT(ABS(B27-A27)*1440)</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="E27" s="1"/>
@@ -36569,7 +36582,7 @@
         <v>123</v>
       </c>
       <c r="D28" s="4">
-        <f>INT(ABS(B28-A28)*1440)</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="E28" s="1"/>
@@ -36585,7 +36598,7 @@
         <v>121</v>
       </c>
       <c r="D29" s="4">
-        <f>INT(ABS(B29-A29)*1440)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="E29" s="1"/>
@@ -36601,7 +36614,7 @@
         <v>121</v>
       </c>
       <c r="D30" s="4">
-        <f>INT(ABS(B30-A30)*1440)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="E30" s="1"/>
@@ -36617,7 +36630,7 @@
         <v>123</v>
       </c>
       <c r="D31" s="4">
-        <f>INT(ABS(B31-A31)*1440)</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="E31" s="1"/>
@@ -36633,7 +36646,7 @@
         <v>123</v>
       </c>
       <c r="D32" s="4">
-        <f>INT(ABS(B32-A32)*1440)</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="E32" s="1"/>
@@ -37068,7 +37081,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{78b3682f-e5c6-43f9-b670-b15d51812e84}</x14:id>
+          <x14:id>{0e0dc7e9-95ad-4524-bbd6-a655c703609f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -37080,7 +37093,936 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{78b3682f-e5c6-43f9-b670-b15d51812e84}">
+          <x14:cfRule type="dataBar" id="{0e0dc7e9-95ad-4524-bbd6-a655c703609f}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D$1:D$1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q92"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="30.7083333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="51.6083333333333" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.7083333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:5">
+      <c r="A2" s="3">
+        <v>45362.3757175926</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45362.3949768519</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="4">
+        <f t="shared" ref="D2:D15" si="0">INT(ABS(B2-A2)*1440)</f>
+        <v>27</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="3">
+        <v>45362.4006134259</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45362.4371527778</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A4" s="3">
+        <v>45362.4497685185</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45362.4866550926</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A5" s="3">
+        <v>45363.3849768518</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45363.4009143518</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A6" s="3">
+        <v>45363.4010300926</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45363.4152662037</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
+        <v>45363.4196412037</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45363.4616666667</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A8" s="3">
+        <v>45363.4662847222</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45363.4865509259</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A9" s="3">
+        <v>45363.6017592593</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45363.6406365741</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A10" s="3">
+        <v>45363.6444212963</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45363.6923611111</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A11" s="3">
+        <v>45363.7023263889</v>
+      </c>
+      <c r="B11" s="3">
+        <v>45363.7471527778</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A12" s="3">
+        <v>45364.4206134259</v>
+      </c>
+      <c r="B12" s="3">
+        <v>45364.4721990741</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A13" s="3">
+        <v>45364.6066782407</v>
+      </c>
+      <c r="B13" s="3">
+        <v>45364.6413541667</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A14" s="3">
+        <v>45364.6484606481</v>
+      </c>
+      <c r="B14" s="3">
+        <v>45364.692662037</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A15" s="3">
+        <v>45364.6965393519</v>
+      </c>
+      <c r="B15" s="3">
+        <v>45364.745150463</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A16" s="3">
+        <v>45365.3824305556</v>
+      </c>
+      <c r="B16" s="3">
+        <v>45365.4101851852</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="4">
+        <f>INT(ABS(B16-A16)*1440)</f>
+        <v>39</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A17" s="3">
+        <v>45365.4165625</v>
+      </c>
+      <c r="B17" s="3">
+        <v>45365.4488888889</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="4">
+        <f>INT(ABS(B17-A17)*1440)</f>
+        <v>46</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A18" s="3">
+        <v>45365.4524305556</v>
+      </c>
+      <c r="B18" s="3">
+        <v>45365.4888310185</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="4">
+        <f>INT(ABS(B18-A18)*1440)</f>
+        <v>52</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A19" s="3">
+        <v>45365.5953472222</v>
+      </c>
+      <c r="B19" s="3">
+        <v>45365.6291435185</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="4">
+        <f>INT(ABS(B19-A19)*1440)</f>
+        <v>48</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A20" s="3">
+        <v>45365.6338773148</v>
+      </c>
+      <c r="B20" s="3">
+        <v>45365.6803356481</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="4">
+        <f>INT(ABS(B20-A20)*1440)</f>
+        <v>66</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A21" s="3">
+        <v>45365.6859606481</v>
+      </c>
+      <c r="B21" s="3">
+        <v>45365.7211458333</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="4">
+        <f>INT(ABS(B21-A21)*1440)</f>
+        <v>50</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+    </row>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A22" s="3">
+        <v>45366.4272685185</v>
+      </c>
+      <c r="B22" s="3">
+        <v>45366.4628125</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="4">
+        <f>INT(ABS(B22-A22)*1440)</f>
+        <v>51</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A23" s="3">
+        <v>45366.4706481481</v>
+      </c>
+      <c r="B23" s="3">
+        <v>45366.4865972222</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="4">
+        <f>INT(ABS(B23-A23)*1440)</f>
+        <v>22</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+    </row>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A24" s="3">
+        <v>45366.6146527778</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D$1:D$1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{b34c8f62-a376-4a28-92db-0cb8a453d0be}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{b34c8f62-a376-4a28-92db-0cb8a453d0be}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -38132,7 +39074,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2daa9e4e-fbe9-45ab-95f2-8bcdaa5709ee}</x14:id>
+          <x14:id>{9f304c64-abde-4372-b31e-fcbee6176709}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -38144,7 +39086,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2daa9e4e-fbe9-45ab-95f2-8bcdaa5709ee}">
+          <x14:cfRule type="dataBar" id="{9f304c64-abde-4372-b31e-fcbee6176709}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -39099,7 +40041,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{971d89cc-12f8-4f74-8868-b246105bfd42}</x14:id>
+          <x14:id>{2a16f8a0-0838-461e-a217-2ca2821e63f0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -39111,7 +40053,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{971d89cc-12f8-4f74-8868-b246105bfd42}">
+          <x14:cfRule type="dataBar" id="{2a16f8a0-0838-461e-a217-2ca2821e63f0}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -40100,7 +41042,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{57a30c04-a633-472e-847b-1e6811827e23}</x14:id>
+          <x14:id>{d2a9c2cb-29fd-43cc-ad71-be55e43e6d1a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -40112,7 +41054,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{57a30c04-a633-472e-847b-1e6811827e23}">
+          <x14:cfRule type="dataBar" id="{d2a9c2cb-29fd-43cc-ad71-be55e43e6d1a}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -41119,7 +42061,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{92ac9aa8-18a5-4861-98b4-0175bc7fe8b3}</x14:id>
+          <x14:id>{72a7b0bc-e4a9-4297-ac72-62653aecd283}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -41131,7 +42073,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{92ac9aa8-18a5-4861-98b4-0175bc7fe8b3}">
+          <x14:cfRule type="dataBar" id="{72a7b0bc-e4a9-4297-ac72-62653aecd283}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -42057,7 +42999,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0728c961-462d-420d-a657-eff25e6abd17}</x14:id>
+          <x14:id>{b759b1f5-9e8e-47b0-a44a-28a6ac4a93b2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -42069,7 +43011,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0728c961-462d-420d-a657-eff25e6abd17}">
+          <x14:cfRule type="dataBar" id="{b759b1f5-9e8e-47b0-a44a-28a6ac4a93b2}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
